--- a/src/main/resources/static/files/Events1.xlsx
+++ b/src/main/resources/static/files/Events1.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosalie Razonable\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROSALIE\Internship\RDAK\excel-import-module\src\main\resources\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8BA3A9-0B3C-48BD-B6E2-27AEC01C3A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D57EFF-0B8E-4B07-9464-1FD7D09D5A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19200" windowHeight="10660" xr2:uid="{F406EA87-CD7E-4A2B-9FFD-AA248E4461BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{F406EA87-CD7E-4A2B-9FFD-AA248E4461BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="Config" sheetId="4" r:id="rId2"/>
-    <sheet name="Events" sheetId="1" r:id="rId3"/>
-    <sheet name="Data Validation" sheetId="2" r:id="rId4"/>
+    <sheet name="eventType" sheetId="5" r:id="rId2"/>
+    <sheet name="Config" sheetId="4" r:id="rId3"/>
+    <sheet name="Events" sheetId="1" r:id="rId4"/>
+    <sheet name="Data Validation" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>Timestamp</t>
   </si>
@@ -258,6 +259,12 @@
   </si>
   <si>
     <t>Sample Location 2, Sample Country 2</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Paid</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F68E40-F9AA-480C-A9CB-435BE77F7652}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1734,8 +1741,8 @@
       <c r="A2" s="4">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
@@ -1784,8 +1791,8 @@
       <c r="A3" s="4">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -1834,8 +1841,8 @@
       <c r="A4" s="4">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>59</v>
@@ -1887,8 +1894,8 @@
       <c r="A5" s="4">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>61</v>
@@ -1937,8 +1944,8 @@
       <c r="A6" s="4">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>64</v>
@@ -1987,8 +1994,8 @@
       <c r="A7" s="4">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -2040,8 +2047,8 @@
       <c r="A8" s="4">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>70</v>
@@ -2097,6 +2104,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB5518-5AFB-4EEC-80FB-D90F43863FB8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF82A0D-6FFB-487E-8BBF-4360CF91ADC1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2127,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7072C2-2C47-41B8-AA87-43B356AA23EA}">
   <dimension ref="B2:F26"/>
   <sheetViews>
@@ -2454,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B1A278-EAFC-491E-B865-B14F9EC34969}">
   <dimension ref="A1:G19"/>
   <sheetViews>
